--- a/Tables/did_reg_lg_total_d_cov_isp.xlsx
+++ b/Tables/did_reg_lg_total_d_cov_isp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989FFC67-9F67-40B3-8E9D-86703320A8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4338CA46-D00F-4571-88FD-15260BC0D5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{4551EA12-3B50-4DD3-ACE4-B1F2BC59C593}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Observations</t>
   </si>
@@ -53,15 +53,6 @@
   </si>
   <si>
     <t>Luminosity</t>
-  </si>
-  <si>
-    <t>(3) + controls</t>
-  </si>
-  <si>
-    <t>(3) + quarter of imp</t>
-  </si>
-  <si>
-    <t>(4) + quarter of imp</t>
   </si>
   <si>
     <t>Four years prior</t>
@@ -87,6 +78,9 @@
   <si>
     <t>Four years after</t>
   </si>
+  <si>
+    <t>Lum + controls</t>
+  </si>
 </sst>
 </file>
 
@@ -109,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -141,18 +135,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -161,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,12 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -235,131 +213,83 @@
           <cell r="I2" t="str">
             <v>(8)</v>
           </cell>
-          <cell r="J2" t="str">
-            <v>(9)</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>(10)</v>
-          </cell>
-          <cell r="L2" t="str">
-            <v>(11)</v>
-          </cell>
-          <cell r="M2" t="str">
-            <v>(12)</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-0.0013</v>
+            <v>0.0055</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-0.0039</v>
+            <v>0.00047</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-0.0029</v>
+            <v>0.0014</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-0.0039</v>
+            <v>0.011</v>
           </cell>
           <cell r="F5" t="str">
-            <v>0.012</v>
+            <v>0.0093</v>
           </cell>
           <cell r="G5" t="str">
-            <v>0.012</v>
+            <v>-0.0025</v>
           </cell>
           <cell r="H5" t="str">
-            <v>0.0032</v>
+            <v>0.0024</v>
           </cell>
           <cell r="I5" t="str">
-            <v>-0.0059</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v>-0.0034</v>
-          </cell>
-          <cell r="K5" t="str">
-            <v>-0.0024</v>
-          </cell>
-          <cell r="L5" t="str">
             <v>0.011</v>
-          </cell>
-          <cell r="M5" t="str">
-            <v>0.012</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>(0.010)</v>
+            <v>(0.011)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.011)</v>
+            <v>(0.012)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(0.011)</v>
+            <v>(0.013)</v>
           </cell>
           <cell r="E6" t="str">
             <v>(0.012)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(0.012)</v>
+            <v>(0.010)</v>
           </cell>
           <cell r="G6" t="str">
             <v>(0.012)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>(0.0098)</v>
+            <v>(0.013)</v>
           </cell>
           <cell r="I6" t="str">
-            <v>(0.011)</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v>(0.011)</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>(0.012)</v>
-          </cell>
-          <cell r="L6" t="str">
-            <v>(0.012)</v>
-          </cell>
-          <cell r="M6" t="str">
             <v>(0.012)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
+            <v>-0.0033</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>-0.0041</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>-0.0037</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>-0.00029</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>-0.0018</v>
+          </cell>
+          <cell r="G8" t="str">
             <v>-0.0071</v>
           </cell>
-          <cell r="C8" t="str">
-            <v>-0.0064</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>-0.0060</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>-0.0066</v>
-          </cell>
-          <cell r="F8" t="str">
-            <v>-0.00083</v>
-          </cell>
-          <cell r="G8" t="str">
-            <v>-0.00082</v>
-          </cell>
           <cell r="H8" t="str">
-            <v>-0.0056</v>
+            <v>-0.0034</v>
           </cell>
           <cell r="I8" t="str">
-            <v>-0.0090</v>
-          </cell>
-          <cell r="J8" t="str">
-            <v>-0.0071</v>
-          </cell>
-          <cell r="K8" t="str">
-            <v>-0.0062</v>
-          </cell>
-          <cell r="L8" t="str">
-            <v>-0.0021</v>
-          </cell>
-          <cell r="M8" t="str">
-            <v>-0.00082</v>
+            <v>-0.00037</v>
           </cell>
         </row>
         <row r="9">
@@ -367,75 +297,51 @@
             <v>(0.0068)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(0.0080)</v>
+            <v>(0.0082)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(0.0080)</v>
+            <v>(0.0085)</v>
           </cell>
           <cell r="E9" t="str">
             <v>(0.0082)</v>
           </cell>
           <cell r="F9" t="str">
+            <v>(0.0064)</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>(0.0079)</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>(0.0084)</v>
+          </cell>
+          <cell r="I9" t="str">
             <v>(0.0081)</v>
-          </cell>
-          <cell r="G9" t="str">
-            <v>(0.0082)</v>
-          </cell>
-          <cell r="H9" t="str">
-            <v>(0.0064)</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>(0.0077)</v>
-          </cell>
-          <cell r="J9" t="str">
-            <v>(0.0079)</v>
-          </cell>
-          <cell r="K9" t="str">
-            <v>(0.0081)</v>
-          </cell>
-          <cell r="L9" t="str">
-            <v>(0.0081)</v>
-          </cell>
-          <cell r="M9" t="str">
-            <v>(0.0082)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>-0.0038</v>
+            <v>-0.0014</v>
           </cell>
           <cell r="C11" t="str">
-            <v>-0.0030</v>
+            <v>-0.0014</v>
           </cell>
           <cell r="D11" t="str">
-            <v>-0.0029</v>
+            <v>-0.0012</v>
           </cell>
           <cell r="E11" t="str">
-            <v>-0.0036</v>
+            <v>0.00052</v>
           </cell>
           <cell r="F11" t="str">
-            <v>-0.00055</v>
+            <v>-0.00064</v>
           </cell>
           <cell r="G11" t="str">
-            <v>-0.00080</v>
+            <v>-0.0031</v>
           </cell>
           <cell r="H11" t="str">
-            <v>-0.0033</v>
+            <v>-0.00092</v>
           </cell>
           <cell r="I11" t="str">
-            <v>-0.0046</v>
-          </cell>
-          <cell r="J11" t="str">
-            <v>-0.0038</v>
-          </cell>
-          <cell r="K11" t="str">
-            <v>-0.0033</v>
-          </cell>
-          <cell r="L11" t="str">
-            <v>-0.0016</v>
-          </cell>
-          <cell r="M11" t="str">
-            <v>-0.00077</v>
+            <v>0.00059</v>
           </cell>
         </row>
         <row r="12">
@@ -443,455 +349,311 @@
             <v>(0.0047)</v>
           </cell>
           <cell r="C12" t="str">
-            <v>(0.0052)</v>
+            <v>(0.0053)</v>
           </cell>
           <cell r="D12" t="str">
-            <v>(0.0051)</v>
+            <v>(0.0053)</v>
           </cell>
           <cell r="E12" t="str">
             <v>(0.0052)</v>
           </cell>
           <cell r="F12" t="str">
+            <v>(0.0044)</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>(0.0050)</v>
+          </cell>
+          <cell r="H12" t="str">
             <v>(0.0053)</v>
           </cell>
-          <cell r="G12" t="str">
-            <v>(0.0053)</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>(0.0044)</v>
-          </cell>
           <cell r="I12" t="str">
-            <v>(0.0049)</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v>(0.0051)</v>
-          </cell>
-          <cell r="K12" t="str">
             <v>(0.0052)</v>
-          </cell>
-          <cell r="L12" t="str">
-            <v>(0.0052)</v>
-          </cell>
-          <cell r="M12" t="str">
-            <v>(0.0053)</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>-0.0079</v>
+            <v>-0.010**</v>
           </cell>
           <cell r="C14" t="str">
-            <v>-0.0095*</v>
+            <v>-0.011*</v>
           </cell>
           <cell r="D14" t="str">
-            <v>-0.0095*</v>
+            <v>-0.012**</v>
           </cell>
           <cell r="E14" t="str">
-            <v>-0.010*</v>
+            <v>-0.013**</v>
           </cell>
           <cell r="F14" t="str">
-            <v>-0.011*</v>
+            <v>-0.0090*</v>
           </cell>
           <cell r="G14" t="str">
+            <v>-0.0069</v>
+          </cell>
+          <cell r="H14" t="str">
             <v>-0.012**</v>
           </cell>
-          <cell r="H14" t="str">
-            <v>-0.0069</v>
-          </cell>
           <cell r="I14" t="str">
-            <v>-0.0067</v>
-          </cell>
-          <cell r="J14" t="str">
-            <v>-0.0086</v>
-          </cell>
-          <cell r="K14" t="str">
-            <v>-0.011*</v>
-          </cell>
-          <cell r="L14" t="str">
-            <v>-0.010*</v>
-          </cell>
-          <cell r="M14" t="str">
-            <v>-0.012**</v>
+            <v>-0.013**</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>(0.0050)</v>
+            <v>(0.0049)</v>
           </cell>
           <cell r="C15" t="str">
+            <v>(0.0055)</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>(0.0057)</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>(0.0058)</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>(0.0046)</v>
+          </cell>
+          <cell r="G15" t="str">
             <v>(0.0054)</v>
           </cell>
-          <cell r="D15" t="str">
-            <v>(0.0054)</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v>(0.0055)</v>
-          </cell>
-          <cell r="F15" t="str">
+          <cell r="H15" t="str">
+            <v>(0.0057)</v>
+          </cell>
+          <cell r="I15" t="str">
             <v>(0.0058)</v>
-          </cell>
-          <cell r="G15" t="str">
-            <v>(0.0059)</v>
-          </cell>
-          <cell r="H15" t="str">
-            <v>(0.0047)</v>
-          </cell>
-          <cell r="I15" t="str">
-            <v>(0.0053)</v>
-          </cell>
-          <cell r="J15" t="str">
-            <v>(0.0054)</v>
-          </cell>
-          <cell r="K15" t="str">
-            <v>(0.0055)</v>
-          </cell>
-          <cell r="L15" t="str">
-            <v>(0.0058)</v>
-          </cell>
-          <cell r="M15" t="str">
-            <v>(0.0059)</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>0.0041</v>
+            <v>-0.0010</v>
           </cell>
           <cell r="C17" t="str">
-            <v>0.00050</v>
+            <v>-0.0014</v>
           </cell>
           <cell r="D17" t="str">
-            <v>0.00064</v>
+            <v>-0.0027</v>
           </cell>
           <cell r="E17" t="str">
-            <v>-0.00018</v>
+            <v>-0.0042</v>
           </cell>
           <cell r="F17" t="str">
             <v>-0.0014</v>
           </cell>
           <cell r="G17" t="str">
-            <v>-0.0028</v>
+            <v>0.0023</v>
           </cell>
           <cell r="H17" t="str">
-            <v>0.0030</v>
+            <v>-0.0031</v>
           </cell>
           <cell r="I17" t="str">
-            <v>0.0027</v>
-          </cell>
-          <cell r="J17" t="str">
-            <v>0.0010</v>
-          </cell>
-          <cell r="K17" t="str">
-            <v>-0.0011</v>
-          </cell>
-          <cell r="L17" t="str">
-            <v>-0.0010</v>
-          </cell>
-          <cell r="M17" t="str">
-            <v>-0.0034</v>
+            <v>-0.0044</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>(0.0064)</v>
+            <v>(0.0065)</v>
           </cell>
           <cell r="C18" t="str">
-            <v>(0.0073)</v>
+            <v>(0.0082)</v>
           </cell>
           <cell r="D18" t="str">
-            <v>(0.0074)</v>
+            <v>(0.0086)</v>
           </cell>
           <cell r="E18" t="str">
-            <v>(0.0076)</v>
+            <v>(0.0086)</v>
           </cell>
           <cell r="F18" t="str">
-            <v>(0.0081)</v>
+            <v>(0.0062)</v>
           </cell>
           <cell r="G18" t="str">
-            <v>(0.0082)</v>
+            <v>(0.0078)</v>
           </cell>
           <cell r="H18" t="str">
-            <v>(0.0060)</v>
+            <v>(0.0085)</v>
           </cell>
           <cell r="I18" t="str">
-            <v>(0.0072)</v>
-          </cell>
-          <cell r="J18" t="str">
-            <v>(0.0073)</v>
-          </cell>
-          <cell r="K18" t="str">
-            <v>(0.0075)</v>
-          </cell>
-          <cell r="L18" t="str">
-            <v>(0.0080)</v>
-          </cell>
-          <cell r="M18" t="str">
-            <v>(0.0082)</v>
+            <v>(0.0085)</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>-0.0075</v>
+            <v>-0.014*</v>
           </cell>
           <cell r="C20" t="str">
-            <v>-0.014</v>
+            <v>-0.015</v>
           </cell>
           <cell r="D20" t="str">
-            <v>-0.013</v>
+            <v>-0.016</v>
           </cell>
           <cell r="E20" t="str">
-            <v>-0.014</v>
+            <v>-0.017</v>
           </cell>
           <cell r="F20" t="str">
-            <v>-0.015</v>
+            <v>-0.015**</v>
           </cell>
           <cell r="G20" t="str">
+            <v>-0.0097</v>
+          </cell>
+          <cell r="H20" t="str">
+            <v>-0.016</v>
+          </cell>
+          <cell r="I20" t="str">
             <v>-0.017</v>
-          </cell>
-          <cell r="H20" t="str">
-            <v>-0.0089</v>
-          </cell>
-          <cell r="I20" t="str">
-            <v>-0.011</v>
-          </cell>
-          <cell r="J20" t="str">
-            <v>-0.012</v>
-          </cell>
-          <cell r="K20" t="str">
-            <v>-0.015</v>
-          </cell>
-          <cell r="L20" t="str">
-            <v>-0.014</v>
-          </cell>
-          <cell r="M20" t="str">
-            <v>-0.017*</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>(0.0078)</v>
+            <v>(0.0082)</v>
           </cell>
           <cell r="C21" t="str">
-            <v>(0.0092)</v>
+            <v>(0.011)</v>
           </cell>
           <cell r="D21" t="str">
-            <v>(0.0092)</v>
+            <v>(0.011)</v>
           </cell>
           <cell r="E21" t="str">
-            <v>(0.0094)</v>
+            <v>(0.011)</v>
           </cell>
           <cell r="F21" t="str">
-            <v>(0.010)</v>
+            <v>(0.0077)</v>
           </cell>
           <cell r="G21" t="str">
             <v>(0.010)</v>
           </cell>
           <cell r="H21" t="str">
-            <v>(0.0073)</v>
+            <v>(0.011)</v>
           </cell>
           <cell r="I21" t="str">
-            <v>(0.0089)</v>
-          </cell>
-          <cell r="J21" t="str">
-            <v>(0.0091)</v>
-          </cell>
-          <cell r="K21" t="str">
-            <v>(0.0094)</v>
-          </cell>
-          <cell r="L21" t="str">
-            <v>(0.0099)</v>
-          </cell>
-          <cell r="M21" t="str">
-            <v>(0.010)</v>
+            <v>(0.011)</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>-0.0025</v>
+            <v>-0.013</v>
           </cell>
           <cell r="C23" t="str">
-            <v>-0.011</v>
+            <v>-0.013</v>
           </cell>
           <cell r="D23" t="str">
-            <v>-0.011</v>
+            <v>-0.016</v>
           </cell>
           <cell r="E23" t="str">
-            <v>-0.012</v>
+            <v>-0.017</v>
           </cell>
           <cell r="F23" t="str">
-            <v>-0.012</v>
+            <v>-0.014</v>
           </cell>
           <cell r="G23" t="str">
-            <v>-0.014</v>
+            <v>-0.0070</v>
           </cell>
           <cell r="H23" t="str">
-            <v>-0.0042</v>
+            <v>-0.016</v>
           </cell>
           <cell r="I23" t="str">
-            <v>-0.0078</v>
-          </cell>
-          <cell r="J23" t="str">
-            <v>-0.010</v>
-          </cell>
-          <cell r="K23" t="str">
-            <v>-0.014</v>
-          </cell>
-          <cell r="L23" t="str">
-            <v>-0.011</v>
-          </cell>
-          <cell r="M23" t="str">
-            <v>-0.015</v>
+            <v>-0.017</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
+            <v>(0.010)</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>(0.014)</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>(0.015)</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>(0.015)</v>
+          </cell>
+          <cell r="F24" t="str">
             <v>(0.0097)</v>
           </cell>
-          <cell r="C24" t="str">
-            <v>(0.011)</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>(0.011)</v>
-          </cell>
-          <cell r="E24" t="str">
-            <v>(0.012)</v>
-          </cell>
-          <cell r="F24" t="str">
-            <v>(0.012)</v>
-          </cell>
           <cell r="G24" t="str">
-            <v>(0.012)</v>
+            <v>(0.013)</v>
           </cell>
           <cell r="H24" t="str">
-            <v>(0.0092)</v>
+            <v>(0.015)</v>
           </cell>
           <cell r="I24" t="str">
-            <v>(0.011)</v>
-          </cell>
-          <cell r="J24" t="str">
-            <v>(0.011)</v>
-          </cell>
-          <cell r="K24" t="str">
-            <v>(0.011)</v>
-          </cell>
-          <cell r="L24" t="str">
-            <v>(0.012)</v>
-          </cell>
-          <cell r="M24" t="str">
-            <v>(0.012)</v>
+            <v>(0.014)</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>-0.024**</v>
+            <v>-0.038***</v>
           </cell>
           <cell r="C26" t="str">
-            <v>-0.036***</v>
+            <v>-0.039**</v>
           </cell>
           <cell r="D26" t="str">
-            <v>-0.036***</v>
+            <v>-0.041**</v>
           </cell>
           <cell r="E26" t="str">
-            <v>-0.037***</v>
+            <v>-0.039*</v>
           </cell>
           <cell r="F26" t="str">
-            <v>-0.031**</v>
+            <v>-0.038***</v>
           </cell>
           <cell r="G26" t="str">
-            <v>-0.033**</v>
+            <v>-0.032*</v>
           </cell>
           <cell r="H26" t="str">
-            <v>-0.025**</v>
+            <v>-0.042**</v>
           </cell>
           <cell r="I26" t="str">
-            <v>-0.032**</v>
-          </cell>
-          <cell r="J26" t="str">
-            <v>-0.035**</v>
-          </cell>
-          <cell r="K26" t="str">
-            <v>-0.039***</v>
-          </cell>
-          <cell r="L26" t="str">
-            <v>-0.030**</v>
-          </cell>
-          <cell r="M26" t="str">
-            <v>-0.035**</v>
+            <v>-0.039**</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>(0.012)</v>
+            <v>(0.013)</v>
           </cell>
           <cell r="C27" t="str">
-            <v>(0.014)</v>
+            <v>(0.018)</v>
           </cell>
           <cell r="D27" t="str">
-            <v>(0.014)</v>
+            <v>(0.019)</v>
           </cell>
           <cell r="E27" t="str">
-            <v>(0.014)</v>
+            <v>(0.020)</v>
           </cell>
           <cell r="F27" t="str">
-            <v>(0.015)</v>
+            <v>(0.013)</v>
           </cell>
           <cell r="G27" t="str">
-            <v>(0.015)</v>
+            <v>(0.017)</v>
           </cell>
           <cell r="H27" t="str">
-            <v>(0.011)</v>
+            <v>(0.019)</v>
           </cell>
           <cell r="I27" t="str">
-            <v>(0.013)</v>
-          </cell>
-          <cell r="J27" t="str">
-            <v>(0.014)</v>
-          </cell>
-          <cell r="K27" t="str">
-            <v>(0.014)</v>
-          </cell>
-          <cell r="L27" t="str">
-            <v>(0.015)</v>
-          </cell>
-          <cell r="M27" t="str">
-            <v>(0.015)</v>
+            <v>(0.020)</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>77086</v>
+            <v>80857</v>
           </cell>
           <cell r="C29" t="str">
-            <v>77086</v>
+            <v>80857</v>
           </cell>
           <cell r="D29" t="str">
-            <v>76992</v>
+            <v>73944</v>
           </cell>
           <cell r="E29" t="str">
-            <v>70709</v>
+            <v>73944</v>
           </cell>
           <cell r="F29" t="str">
-            <v>76992</v>
+            <v>93726</v>
           </cell>
           <cell r="G29" t="str">
-            <v>70709</v>
+            <v>93726</v>
           </cell>
           <cell r="H29" t="str">
-            <v>88259</v>
+            <v>79612</v>
           </cell>
           <cell r="I29" t="str">
-            <v>88259</v>
-          </cell>
-          <cell r="J29" t="str">
-            <v>88117</v>
-          </cell>
-          <cell r="K29" t="str">
-            <v>75391</v>
-          </cell>
-          <cell r="L29" t="str">
-            <v>88117</v>
-          </cell>
-          <cell r="M29" t="str">
-            <v>75391</v>
+            <v>79612</v>
           </cell>
         </row>
         <row r="30">
@@ -899,40 +661,28 @@
             <v>R-sq</v>
           </cell>
           <cell r="B30" t="str">
-            <v>0.319</v>
+            <v>0.308</v>
           </cell>
           <cell r="C30" t="str">
-            <v>0.330</v>
+            <v>0.343</v>
           </cell>
           <cell r="D30" t="str">
-            <v>0.329</v>
+            <v>0.351</v>
           </cell>
           <cell r="E30" t="str">
-            <v>0.340</v>
+            <v>0.353</v>
           </cell>
           <cell r="F30" t="str">
-            <v>0.331</v>
+            <v>0.302</v>
           </cell>
           <cell r="G30" t="str">
-            <v>0.341</v>
+            <v>0.337</v>
           </cell>
           <cell r="H30" t="str">
-            <v>0.312</v>
+            <v>0.342</v>
           </cell>
           <cell r="I30" t="str">
-            <v>0.324</v>
-          </cell>
-          <cell r="J30" t="str">
-            <v>0.311</v>
-          </cell>
-          <cell r="K30" t="str">
-            <v>0.330</v>
-          </cell>
-          <cell r="L30" t="str">
-            <v>0.313</v>
-          </cell>
-          <cell r="M30" t="str">
-            <v>0.332</v>
+            <v>0.343</v>
           </cell>
         </row>
         <row r="31">
@@ -940,40 +690,28 @@
             <v>DepVarMean</v>
           </cell>
           <cell r="B31" t="str">
-            <v>2.48</v>
+            <v>2.50</v>
           </cell>
           <cell r="C31" t="str">
-            <v>2.48</v>
+            <v>2.50</v>
           </cell>
           <cell r="D31" t="str">
-            <v>2.48</v>
+            <v>2.63</v>
           </cell>
           <cell r="E31" t="str">
-            <v>2.60</v>
+            <v>2.63</v>
           </cell>
           <cell r="F31" t="str">
-            <v>2.48</v>
+            <v>2.36</v>
           </cell>
           <cell r="G31" t="str">
-            <v>2.60</v>
+            <v>2.36</v>
           </cell>
           <cell r="H31" t="str">
-            <v>2.34</v>
+            <v>2.55</v>
           </cell>
           <cell r="I31" t="str">
-            <v>2.34</v>
-          </cell>
-          <cell r="J31" t="str">
-            <v>2.33</v>
-          </cell>
-          <cell r="K31" t="str">
-            <v>2.53</v>
-          </cell>
-          <cell r="L31" t="str">
-            <v>2.33</v>
-          </cell>
-          <cell r="M31" t="str">
-            <v>2.53</v>
+            <v>2.55</v>
           </cell>
         </row>
         <row r="32">
@@ -984,34 +722,22 @@
             <v>1914</v>
           </cell>
           <cell r="D32" t="str">
-            <v>1912</v>
+            <v>1699</v>
           </cell>
           <cell r="E32" t="str">
-            <v>1683</v>
+            <v>1699</v>
           </cell>
           <cell r="F32" t="str">
-            <v>1912</v>
+            <v>2427</v>
           </cell>
           <cell r="G32" t="str">
-            <v>1683</v>
+            <v>2427</v>
           </cell>
           <cell r="H32" t="str">
-            <v>2427</v>
+            <v>2201</v>
           </cell>
           <cell r="I32" t="str">
-            <v>2427</v>
-          </cell>
-          <cell r="J32" t="str">
-            <v>2424</v>
-          </cell>
-          <cell r="K32" t="str">
-            <v>2156</v>
-          </cell>
-          <cell r="L32" t="str">
-            <v>2424</v>
-          </cell>
-          <cell r="M32" t="str">
-            <v>2156</v>
+            <v>2201</v>
           </cell>
         </row>
       </sheetData>
@@ -1317,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E19699-E6D3-4FD3-B8B6-2EED5A152298}">
-  <dimension ref="A3:N27"/>
+  <dimension ref="A3:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:N26"/>
+      <selection activeCell="A3" sqref="A3:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1329,1001 +1055,695 @@
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="str">
+      <c r="J3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!A2</f>
         <v/>
       </c>
-      <c r="B4" s="9" t="str">
+      <c r="B4" s="3" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B2</f>
         <v>(1)</v>
       </c>
-      <c r="C4" s="9" t="str">
+      <c r="C4" s="3" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C2</f>
         <v>(2)</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="3" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D2</f>
         <v>(3)</v>
       </c>
-      <c r="E4" s="9" t="str">
+      <c r="E4" s="3" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E2</f>
         <v>(4)</v>
       </c>
-      <c r="F4" s="9" t="str">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F2</f>
         <v>(5)</v>
       </c>
-      <c r="G4" s="9" t="str">
+      <c r="H4" s="3" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G2</f>
         <v>(6)</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="str">
+      <c r="I4" s="3" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H2</f>
         <v>(7)</v>
       </c>
-      <c r="J4" s="9" t="str">
+      <c r="J4" s="3" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I2</f>
         <v>(8)</v>
       </c>
-      <c r="K4" s="9" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J2</f>
-        <v>(9)</v>
-      </c>
-      <c r="L4" s="9" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K2</f>
-        <v>(10)</v>
-      </c>
-      <c r="M4" s="9" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L2</f>
-        <v>(11)</v>
-      </c>
-      <c r="N4" s="9" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M2</f>
-        <v>(12)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B5</f>
-        <v>-0.0013</v>
+        <v>0.0055</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C5</f>
-        <v>-0.0039</v>
+        <v>0.00047</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D5</f>
-        <v>-0.0029</v>
+        <v>0.0014</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E5</f>
-        <v>-0.0039</v>
-      </c>
-      <c r="F5" s="1" t="str">
+        <v>0.011</v>
+      </c>
+      <c r="G5" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F5</f>
-        <v>0.012</v>
-      </c>
-      <c r="G5" s="1" t="str">
+        <v>0.0093</v>
+      </c>
+      <c r="H5" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G5</f>
-        <v>0.012</v>
+        <v>-0.0025</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H5</f>
-        <v>0.0032</v>
+        <v>0.0024</v>
       </c>
       <c r="J5" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I5</f>
-        <v>-0.0059</v>
-      </c>
-      <c r="K5" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J5</f>
-        <v>-0.0034</v>
-      </c>
-      <c r="L5" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K5</f>
-        <v>-0.0024</v>
-      </c>
-      <c r="M5" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L5</f>
         <v>0.011</v>
       </c>
-      <c r="N5" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M5</f>
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B6</f>
-        <v>(0.010)</v>
+        <v>(0.011)</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C6</f>
-        <v>(0.011)</v>
+        <v>(0.012)</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D6</f>
-        <v>(0.011)</v>
+        <v>(0.013)</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E6</f>
         <v>(0.012)</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="G6" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F6</f>
-        <v>(0.012)</v>
-      </c>
-      <c r="G6" s="1" t="str">
+        <v>(0.010)</v>
+      </c>
+      <c r="H6" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G6</f>
         <v>(0.012)</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H6</f>
-        <v>(0.0098)</v>
+        <v>(0.013)</v>
       </c>
       <c r="J6" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I6</f>
-        <v>(0.011)</v>
-      </c>
-      <c r="K6" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J6</f>
-        <v>(0.011)</v>
-      </c>
-      <c r="L6" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K6</f>
         <v>(0.012)</v>
       </c>
-      <c r="M6" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L6</f>
-        <v>(0.012)</v>
-      </c>
-      <c r="N6" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M6</f>
-        <v>(0.012)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B8</f>
-        <v>-0.0071</v>
+        <v>-0.0033</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C8</f>
-        <v>-0.0064</v>
+        <v>-0.0041</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D8</f>
-        <v>-0.0060</v>
+        <v>-0.0037</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E8</f>
-        <v>-0.0066</v>
-      </c>
-      <c r="F7" s="1" t="str">
+        <v>-0.00029</v>
+      </c>
+      <c r="G7" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F8</f>
-        <v>-0.00083</v>
-      </c>
-      <c r="G7" s="1" t="str">
+        <v>-0.0018</v>
+      </c>
+      <c r="H7" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G8</f>
-        <v>-0.00082</v>
+        <v>-0.0071</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H8</f>
-        <v>-0.0056</v>
+        <v>-0.0034</v>
       </c>
       <c r="J7" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I8</f>
-        <v>-0.0090</v>
-      </c>
-      <c r="K7" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J8</f>
-        <v>-0.0071</v>
-      </c>
-      <c r="L7" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K8</f>
-        <v>-0.0062</v>
-      </c>
-      <c r="M7" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L8</f>
-        <v>-0.0021</v>
-      </c>
-      <c r="N7" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M8</f>
-        <v>-0.00082</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>-0.00037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B9</f>
         <v>(0.0068)</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C9</f>
-        <v>(0.0080)</v>
+        <v>(0.0082)</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D9</f>
-        <v>(0.0080)</v>
+        <v>(0.0085)</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E9</f>
         <v>(0.0082)</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="G8" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F9</f>
-        <v>(0.0081)</v>
-      </c>
-      <c r="G8" s="1" t="str">
+        <v>(0.0064)</v>
+      </c>
+      <c r="H8" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G9</f>
-        <v>(0.0082)</v>
+        <v>(0.0079)</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H9</f>
-        <v>(0.0064)</v>
+        <v>(0.0084)</v>
       </c>
       <c r="J8" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I9</f>
-        <v>(0.0077)</v>
-      </c>
-      <c r="K8" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J9</f>
-        <v>(0.0079)</v>
-      </c>
-      <c r="L8" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K9</f>
         <v>(0.0081)</v>
       </c>
-      <c r="M8" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L9</f>
-        <v>(0.0081)</v>
-      </c>
-      <c r="N8" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M9</f>
-        <v>(0.0082)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B11</f>
-        <v>-0.0038</v>
+        <v>-0.0014</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C11</f>
-        <v>-0.0030</v>
+        <v>-0.0014</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D11</f>
-        <v>-0.0029</v>
+        <v>-0.0012</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E11</f>
-        <v>-0.0036</v>
-      </c>
-      <c r="F9" s="1" t="str">
+        <v>0.00052</v>
+      </c>
+      <c r="G9" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F11</f>
-        <v>-0.00055</v>
-      </c>
-      <c r="G9" s="1" t="str">
+        <v>-0.00064</v>
+      </c>
+      <c r="H9" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G11</f>
-        <v>-0.00080</v>
+        <v>-0.0031</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H11</f>
-        <v>-0.0033</v>
+        <v>-0.00092</v>
       </c>
       <c r="J9" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I11</f>
-        <v>-0.0046</v>
-      </c>
-      <c r="K9" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J11</f>
-        <v>-0.0038</v>
-      </c>
-      <c r="L9" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K11</f>
-        <v>-0.0033</v>
-      </c>
-      <c r="M9" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L11</f>
-        <v>-0.0016</v>
-      </c>
-      <c r="N9" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M11</f>
-        <v>-0.00077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.00059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B12</f>
         <v>(0.0047)</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C12</f>
-        <v>(0.0052)</v>
+        <v>(0.0053)</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D12</f>
-        <v>(0.0051)</v>
+        <v>(0.0053)</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E12</f>
         <v>(0.0052)</v>
       </c>
-      <c r="F10" s="1" t="str">
+      <c r="G10" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F12</f>
-        <v>(0.0053)</v>
-      </c>
-      <c r="G10" s="1" t="str">
+        <v>(0.0044)</v>
+      </c>
+      <c r="H10" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G12</f>
-        <v>(0.0053)</v>
+        <v>(0.0050)</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H12</f>
-        <v>(0.0044)</v>
+        <v>(0.0053)</v>
       </c>
       <c r="J10" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I12</f>
-        <v>(0.0049)</v>
-      </c>
-      <c r="K10" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J12</f>
-        <v>(0.0051)</v>
-      </c>
-      <c r="L10" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K12</f>
         <v>(0.0052)</v>
       </c>
-      <c r="M10" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L12</f>
-        <v>(0.0052)</v>
-      </c>
-      <c r="N10" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M12</f>
-        <v>(0.0053)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B14</f>
-        <v>-0.0079</v>
+        <v>-0.010**</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C14</f>
-        <v>-0.0095*</v>
+        <v>-0.011*</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D14</f>
-        <v>-0.0095*</v>
+        <v>-0.012**</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E14</f>
-        <v>-0.010*</v>
-      </c>
-      <c r="F12" s="1" t="str">
+        <v>-0.013**</v>
+      </c>
+      <c r="G12" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F14</f>
-        <v>-0.011*</v>
-      </c>
-      <c r="G12" s="1" t="str">
+        <v>-0.0090*</v>
+      </c>
+      <c r="H12" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G14</f>
-        <v>-0.012**</v>
+        <v>-0.0069</v>
       </c>
       <c r="I12" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H14</f>
-        <v>-0.0069</v>
+        <v>-0.012**</v>
       </c>
       <c r="J12" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I14</f>
-        <v>-0.0067</v>
-      </c>
-      <c r="K12" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J14</f>
-        <v>-0.0086</v>
-      </c>
-      <c r="L12" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K14</f>
-        <v>-0.011*</v>
-      </c>
-      <c r="M12" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L14</f>
-        <v>-0.010*</v>
-      </c>
-      <c r="N12" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M14</f>
-        <v>-0.012**</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>-0.013**</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B15</f>
-        <v>(0.0050)</v>
+        <v>(0.0049)</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C15</f>
-        <v>(0.0054)</v>
+        <v>(0.0055)</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D15</f>
-        <v>(0.0054)</v>
+        <v>(0.0057)</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E15</f>
-        <v>(0.0055)</v>
-      </c>
-      <c r="F13" s="1" t="str">
+        <v>(0.0058)</v>
+      </c>
+      <c r="G13" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F15</f>
-        <v>(0.0058)</v>
-      </c>
-      <c r="G13" s="1" t="str">
+        <v>(0.0046)</v>
+      </c>
+      <c r="H13" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G15</f>
-        <v>(0.0059)</v>
+        <v>(0.0054)</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H15</f>
-        <v>(0.0047)</v>
+        <v>(0.0057)</v>
       </c>
       <c r="J13" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I15</f>
-        <v>(0.0053)</v>
-      </c>
-      <c r="K13" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J15</f>
-        <v>(0.0054)</v>
-      </c>
-      <c r="L13" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K15</f>
-        <v>(0.0055)</v>
-      </c>
-      <c r="M13" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L15</f>
         <v>(0.0058)</v>
       </c>
-      <c r="N13" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M15</f>
-        <v>(0.0059)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B17</f>
-        <v>0.0041</v>
+        <v>-0.0010</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C17</f>
-        <v>0.00050</v>
+        <v>-0.0014</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D17</f>
-        <v>0.00064</v>
+        <v>-0.0027</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E17</f>
-        <v>-0.00018</v>
-      </c>
-      <c r="F14" s="1" t="str">
+        <v>-0.0042</v>
+      </c>
+      <c r="G14" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F17</f>
         <v>-0.0014</v>
       </c>
-      <c r="G14" s="1" t="str">
+      <c r="H14" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G17</f>
-        <v>-0.0028</v>
+        <v>0.0023</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H17</f>
-        <v>0.0030</v>
+        <v>-0.0031</v>
       </c>
       <c r="J14" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I17</f>
-        <v>0.0027</v>
-      </c>
-      <c r="K14" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J17</f>
-        <v>0.0010</v>
-      </c>
-      <c r="L14" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K17</f>
-        <v>-0.0011</v>
-      </c>
-      <c r="M14" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L17</f>
-        <v>-0.0010</v>
-      </c>
-      <c r="N14" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M17</f>
-        <v>-0.0034</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+        <v>-0.0044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B18</f>
-        <v>(0.0064)</v>
+        <v>(0.0065)</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C18</f>
-        <v>(0.0073)</v>
+        <v>(0.0082)</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D18</f>
-        <v>(0.0074)</v>
+        <v>(0.0086)</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E18</f>
-        <v>(0.0076)</v>
-      </c>
-      <c r="F15" s="1" t="str">
+        <v>(0.0086)</v>
+      </c>
+      <c r="G15" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F18</f>
-        <v>(0.0081)</v>
-      </c>
-      <c r="G15" s="1" t="str">
+        <v>(0.0062)</v>
+      </c>
+      <c r="H15" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G18</f>
-        <v>(0.0082)</v>
+        <v>(0.0078)</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H18</f>
-        <v>(0.0060)</v>
+        <v>(0.0085)</v>
       </c>
       <c r="J15" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I18</f>
-        <v>(0.0072)</v>
-      </c>
-      <c r="K15" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J18</f>
-        <v>(0.0073)</v>
-      </c>
-      <c r="L15" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K18</f>
-        <v>(0.0075)</v>
-      </c>
-      <c r="M15" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L18</f>
-        <v>(0.0080)</v>
-      </c>
-      <c r="N15" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M18</f>
-        <v>(0.0082)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+        <v>(0.0085)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B20</f>
-        <v>-0.0075</v>
+        <v>-0.014*</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C20</f>
-        <v>-0.014</v>
+        <v>-0.015</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D20</f>
-        <v>-0.013</v>
+        <v>-0.016</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E20</f>
-        <v>-0.014</v>
-      </c>
-      <c r="F16" s="1" t="str">
+        <v>-0.017</v>
+      </c>
+      <c r="G16" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F20</f>
-        <v>-0.015</v>
-      </c>
-      <c r="G16" s="1" t="str">
+        <v>-0.015**</v>
+      </c>
+      <c r="H16" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G20</f>
-        <v>-0.017</v>
+        <v>-0.0097</v>
       </c>
       <c r="I16" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H20</f>
-        <v>-0.0089</v>
+        <v>-0.016</v>
       </c>
       <c r="J16" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I20</f>
-        <v>-0.011</v>
-      </c>
-      <c r="K16" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J20</f>
-        <v>-0.012</v>
-      </c>
-      <c r="L16" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K20</f>
-        <v>-0.015</v>
-      </c>
-      <c r="M16" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L20</f>
-        <v>-0.014</v>
-      </c>
-      <c r="N16" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M20</f>
-        <v>-0.017*</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>-0.017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B21</f>
-        <v>(0.0078)</v>
+        <v>(0.0082)</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C21</f>
-        <v>(0.0092)</v>
+        <v>(0.011)</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D21</f>
-        <v>(0.0092)</v>
+        <v>(0.011)</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E21</f>
-        <v>(0.0094)</v>
-      </c>
-      <c r="F17" s="1" t="str">
+        <v>(0.011)</v>
+      </c>
+      <c r="G17" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F21</f>
-        <v>(0.010)</v>
-      </c>
-      <c r="G17" s="1" t="str">
+        <v>(0.0077)</v>
+      </c>
+      <c r="H17" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G21</f>
         <v>(0.010)</v>
       </c>
       <c r="I17" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H21</f>
-        <v>(0.0073)</v>
+        <v>(0.011)</v>
       </c>
       <c r="J17" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I21</f>
-        <v>(0.0089)</v>
-      </c>
-      <c r="K17" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J21</f>
-        <v>(0.0091)</v>
-      </c>
-      <c r="L17" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K21</f>
-        <v>(0.0094)</v>
-      </c>
-      <c r="M17" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L21</f>
-        <v>(0.0099)</v>
-      </c>
-      <c r="N17" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M21</f>
-        <v>(0.010)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+        <v>(0.011)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B23</f>
-        <v>-0.0025</v>
+        <v>-0.013</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C23</f>
-        <v>-0.011</v>
+        <v>-0.013</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D23</f>
-        <v>-0.011</v>
+        <v>-0.016</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E23</f>
-        <v>-0.012</v>
-      </c>
-      <c r="F18" s="1" t="str">
+        <v>-0.017</v>
+      </c>
+      <c r="G18" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F23</f>
-        <v>-0.012</v>
-      </c>
-      <c r="G18" s="1" t="str">
+        <v>-0.014</v>
+      </c>
+      <c r="H18" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G23</f>
-        <v>-0.014</v>
+        <v>-0.0070</v>
       </c>
       <c r="I18" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H23</f>
-        <v>-0.0042</v>
+        <v>-0.016</v>
       </c>
       <c r="J18" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I23</f>
-        <v>-0.0078</v>
-      </c>
-      <c r="K18" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J23</f>
-        <v>-0.010</v>
-      </c>
-      <c r="L18" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K23</f>
-        <v>-0.014</v>
-      </c>
-      <c r="M18" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L23</f>
-        <v>-0.011</v>
-      </c>
-      <c r="N18" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M23</f>
-        <v>-0.015</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>-0.017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B24</f>
-        <v>(0.0097)</v>
+        <v>(0.010)</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C24</f>
-        <v>(0.011)</v>
+        <v>(0.014)</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D24</f>
-        <v>(0.011)</v>
+        <v>(0.015)</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E24</f>
-        <v>(0.012)</v>
-      </c>
-      <c r="F19" s="1" t="str">
+        <v>(0.015)</v>
+      </c>
+      <c r="G19" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F24</f>
-        <v>(0.012)</v>
-      </c>
-      <c r="G19" s="1" t="str">
+        <v>(0.0097)</v>
+      </c>
+      <c r="H19" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G24</f>
-        <v>(0.012)</v>
+        <v>(0.013)</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H24</f>
-        <v>(0.0092)</v>
+        <v>(0.015)</v>
       </c>
       <c r="J19" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I24</f>
-        <v>(0.011)</v>
-      </c>
-      <c r="K19" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J24</f>
-        <v>(0.011)</v>
-      </c>
-      <c r="L19" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K24</f>
-        <v>(0.011)</v>
-      </c>
-      <c r="M19" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L24</f>
-        <v>(0.012)</v>
-      </c>
-      <c r="N19" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M24</f>
-        <v>(0.012)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+        <v>(0.014)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B26</f>
-        <v>-0.024**</v>
+        <v>-0.038***</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C26</f>
-        <v>-0.036***</v>
+        <v>-0.039**</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D26</f>
-        <v>-0.036***</v>
+        <v>-0.041**</v>
       </c>
       <c r="E20" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E26</f>
-        <v>-0.037***</v>
-      </c>
-      <c r="F20" s="1" t="str">
+        <v>-0.039*</v>
+      </c>
+      <c r="G20" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F26</f>
-        <v>-0.031**</v>
-      </c>
-      <c r="G20" s="1" t="str">
+        <v>-0.038***</v>
+      </c>
+      <c r="H20" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G26</f>
-        <v>-0.033**</v>
+        <v>-0.032*</v>
       </c>
       <c r="I20" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H26</f>
-        <v>-0.025**</v>
+        <v>-0.042**</v>
       </c>
       <c r="J20" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I26</f>
-        <v>-0.032**</v>
-      </c>
-      <c r="K20" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J26</f>
-        <v>-0.035**</v>
-      </c>
-      <c r="L20" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K26</f>
-        <v>-0.039***</v>
-      </c>
-      <c r="M20" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L26</f>
-        <v>-0.030**</v>
-      </c>
-      <c r="N20" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M26</f>
-        <v>-0.035**</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+        <v>-0.039**</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B27</f>
-        <v>(0.012)</v>
+        <v>(0.013)</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C27</f>
-        <v>(0.014)</v>
+        <v>(0.018)</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D27</f>
-        <v>(0.014)</v>
+        <v>(0.019)</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E27</f>
-        <v>(0.014)</v>
-      </c>
-      <c r="F21" s="1" t="str">
+        <v>(0.020)</v>
+      </c>
+      <c r="G21" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F27</f>
-        <v>(0.015)</v>
-      </c>
-      <c r="G21" s="1" t="str">
+        <v>(0.013)</v>
+      </c>
+      <c r="H21" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G27</f>
-        <v>(0.015)</v>
+        <v>(0.017)</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H27</f>
-        <v>(0.011)</v>
+        <v>(0.019)</v>
       </c>
       <c r="J21" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I27</f>
-        <v>(0.013)</v>
-      </c>
-      <c r="K21" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J27</f>
-        <v>(0.014)</v>
-      </c>
-      <c r="L21" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K27</f>
-        <v>(0.014)</v>
-      </c>
-      <c r="M21" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L27</f>
-        <v>(0.015)</v>
-      </c>
-      <c r="N21" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M27</f>
-        <v>(0.015)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+        <v>(0.020)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="5" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B29</f>
-        <v>77086</v>
+        <v>80857</v>
       </c>
       <c r="C23" s="5" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C29</f>
-        <v>77086</v>
+        <v>80857</v>
       </c>
       <c r="D23" s="5" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D29</f>
-        <v>76992</v>
+        <v>73944</v>
       </c>
       <c r="E23" s="5" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E29</f>
-        <v>70709</v>
-      </c>
-      <c r="F23" s="5" t="str">
+        <v>73944</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F29</f>
-        <v>76992</v>
-      </c>
-      <c r="G23" s="5" t="str">
+        <v>93726</v>
+      </c>
+      <c r="H23" s="5" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G29</f>
-        <v>70709</v>
-      </c>
-      <c r="H23" s="5"/>
+        <v>93726</v>
+      </c>
       <c r="I23" s="5" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H29</f>
-        <v>88259</v>
+        <v>79612</v>
       </c>
       <c r="J23" s="5" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I29</f>
-        <v>88259</v>
-      </c>
-      <c r="K23" s="5" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J29</f>
-        <v>88117</v>
-      </c>
-      <c r="L23" s="5" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K29</f>
-        <v>75391</v>
-      </c>
-      <c r="M23" s="5" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L29</f>
-        <v>88117</v>
-      </c>
-      <c r="N23" s="5" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M29</f>
-        <v>75391</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+        <v>79612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2337,155 +1757,107 @@
       </c>
       <c r="D24" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D32</f>
-        <v>1912</v>
+        <v>1699</v>
       </c>
       <c r="E24" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E32</f>
-        <v>1683</v>
-      </c>
-      <c r="F24" s="1" t="str">
+        <v>1699</v>
+      </c>
+      <c r="G24" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F32</f>
-        <v>1912</v>
-      </c>
-      <c r="G24" s="1" t="str">
+        <v>2427</v>
+      </c>
+      <c r="H24" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G32</f>
-        <v>1683</v>
+        <v>2427</v>
       </c>
       <c r="I24" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H32</f>
-        <v>2427</v>
+        <v>2201</v>
       </c>
       <c r="J24" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I32</f>
-        <v>2427</v>
-      </c>
-      <c r="K24" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J32</f>
-        <v>2424</v>
-      </c>
-      <c r="L24" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K32</f>
-        <v>2156</v>
-      </c>
-      <c r="M24" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L32</f>
-        <v>2424</v>
-      </c>
-      <c r="N24" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M32</f>
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!A30</f>
         <v>R-sq</v>
       </c>
       <c r="B25" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B30</f>
-        <v>0.319</v>
+        <v>0.308</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C30</f>
-        <v>0.330</v>
+        <v>0.343</v>
       </c>
       <c r="D25" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D30</f>
-        <v>0.329</v>
+        <v>0.351</v>
       </c>
       <c r="E25" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E30</f>
-        <v>0.340</v>
-      </c>
-      <c r="F25" s="1" t="str">
+        <v>0.353</v>
+      </c>
+      <c r="G25" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F30</f>
-        <v>0.331</v>
-      </c>
-      <c r="G25" s="1" t="str">
+        <v>0.302</v>
+      </c>
+      <c r="H25" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G30</f>
-        <v>0.341</v>
+        <v>0.337</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H30</f>
-        <v>0.312</v>
+        <v>0.342</v>
       </c>
       <c r="J25" s="1" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I30</f>
-        <v>0.324</v>
-      </c>
-      <c r="K25" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J30</f>
-        <v>0.311</v>
-      </c>
-      <c r="L25" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K30</f>
-        <v>0.330</v>
-      </c>
-      <c r="M25" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L30</f>
-        <v>0.313</v>
-      </c>
-      <c r="N25" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M30</f>
-        <v>0.332</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!A31</f>
         <v>DepVarMean</v>
       </c>
       <c r="B26" s="3" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!B31</f>
-        <v>2.48</v>
+        <v>2.50</v>
       </c>
       <c r="C26" s="3" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!C31</f>
-        <v>2.48</v>
+        <v>2.50</v>
       </c>
       <c r="D26" s="3" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!D31</f>
-        <v>2.48</v>
+        <v>2.63</v>
       </c>
       <c r="E26" s="3" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!E31</f>
-        <v>2.60</v>
-      </c>
-      <c r="F26" s="3" t="str">
+        <v>2.63</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!F31</f>
-        <v>2.48</v>
-      </c>
-      <c r="G26" s="3" t="str">
+        <v>2.36</v>
+      </c>
+      <c r="H26" s="3" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!G31</f>
-        <v>2.60</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>2.36</v>
+      </c>
       <c r="I26" s="3" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!H31</f>
-        <v>2.34</v>
+        <v>2.55</v>
       </c>
       <c r="J26" s="3" t="str">
         <f>[1]did_reg_lg_total_d_cov_isp!I31</f>
-        <v>2.34</v>
-      </c>
-      <c r="K26" s="3" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!J31</f>
-        <v>2.33</v>
-      </c>
-      <c r="L26" s="3" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!K31</f>
-        <v>2.53</v>
-      </c>
-      <c r="M26" s="3" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!L31</f>
-        <v>2.33</v>
-      </c>
-      <c r="N26" s="3" t="str">
-        <f>[1]did_reg_lg_total_d_cov_isp!M31</f>
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
